--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7-捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7-捷豹组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>No</t>
   </si>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>【生产环境】月付账单-还款日期计算错误，与产品需求不符</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1343,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1449,7 +1453,9 @@
       <c r="E2" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="38" t="s">
+        <v>75</v>
+      </c>
       <c r="G2" s="38" t="s">
         <v>71</v>
       </c>

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7-捷豹组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7-捷豹组.xlsx
@@ -29,12 +29,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -269,15 +269,26 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>捷豹组</t>
-  </si>
-  <si>
     <t>【生产环境】月付账单-还款日期计算错误，与产品需求不符</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>BS</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1354,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,13 +1459,13 @@
         <v>69</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>71</v>
@@ -1473,12 +1484,20 @@
         <v>72</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="39">
+        <v>42385</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="44">
         <v>7483</v>
       </c>
